--- a/Master3.xlsx
+++ b/Master3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Intern_WorkSpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/j_a_vorathammaporn_accenture_com/Documents/Desktop/PTT-WorkSpace/Accenture-Data-Migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCA3FCF-CF0C-4C99-846F-13DADE525259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{AFCA3FCF-CF0C-4C99-846F-13DADE525259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D87100-6BE2-4015-A4B6-54275A25994C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5553D876-8CE6-4031-8D37-2253051AB329}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5553D876-8CE6-4031-8D37-2253051AB329}"/>
   </bookViews>
   <sheets>
     <sheet name="File List" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Source Path</t>
   </si>
@@ -94,79 +94,38 @@
     <t>Sheet1</t>
   </si>
   <si>
-    <t>C:\Users\j.vorathammaporn\OneDrive - Accenture\Desktop\Internship_Workspace\SandBox_Test\test_delta\</t>
-  </si>
-  <si>
-    <t>Before_Delta_0023.xlsx</t>
-  </si>
-  <si>
-    <t>FirstRowofData</t>
-  </si>
-  <si>
-    <t>*กำหนดRowแรกของข้อมูล</t>
-  </si>
-  <si>
-    <t>MockColumn</t>
-  </si>
-  <si>
-    <t>*ตำแหน่งของColumn "Mock"</t>
-  </si>
-  <si>
-    <t>DeltaIndicatorColumn</t>
-  </si>
-  <si>
-    <t>*ตำแหน่งของColumn "Delta Indicator"</t>
-  </si>
-  <si>
-    <t>ConcatenatedAsIsKeyColumn</t>
-  </si>
-  <si>
-    <t>*ตำแหน่งของColumn "Concatenated AsIs Key"</t>
-  </si>
-  <si>
-    <t>StartColumnForCheckDataChange</t>
-  </si>
-  <si>
-    <t>*กำหนดColumnที่จะใช้เริ่มเปรียบเทียบข้อมูล</t>
-  </si>
-  <si>
-    <t>HeaderRow</t>
-  </si>
-  <si>
-    <t>*กำหนดRowที่จะใช้เป็นHeader</t>
-  </si>
-  <si>
-    <t>*ตำแหน่งของColumn "Status from previous mock"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*กำหนดจำนวนRecord Limit ที่ต้องการจะใช้เพื่อทดลองProcess Data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**กรณีที่ไม่ต้องการจะกำหนดRecord Limit ให้ทำการใส่ 0(เลขศูนย์)</t>
-    </r>
-  </si>
-  <si>
     <t>EnableMockNumberCheck</t>
   </si>
   <si>
-    <t>*เปิดการตรวจสอบว่าใส่เลข Mock ถูกต้องหรือไม่ 1 = เปิด , 0 = ปิด</t>
+    <t>firstRowOfData</t>
+  </si>
+  <si>
+    <t>mockColumn</t>
+  </si>
+  <si>
+    <t>deltaIndicatorColumn</t>
+  </si>
+  <si>
+    <t>concatenatedKeyColumn</t>
+  </si>
+  <si>
+    <t>startColumnCheckData</t>
+  </si>
+  <si>
+    <t>headerRow</t>
+  </si>
+  <si>
+    <t>C:\Users\j.a.vorathammaporn\OneDrive - Accenture\Desktop\PTT-WorkSpace\SandBox\DeltaTest\Python_Result\</t>
+  </si>
+  <si>
+    <t>BeforeDelta_Python.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,14 +170,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,13 +298,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -385,7 +336,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="64008" tIns="64008" rIns="64008" bIns="64008" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="73152" tIns="73152" rIns="73152" bIns="73152" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -422,13 +373,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -460,7 +411,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="64008" tIns="64008" rIns="64008" bIns="64008" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="73152" tIns="73152" rIns="73152" bIns="73152" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -497,13 +448,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -535,7 +486,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="64008" tIns="64008" rIns="64008" bIns="64008" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="73152" tIns="73152" rIns="73152" bIns="73152" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -883,19 +834,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="58.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.77734375" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.21875"/>
-    <col min="4" max="4" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875"/>
+    <col min="4" max="4" width="61.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,42 +854,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="39" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
@@ -959,13 +910,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>175260</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>63500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -983,16 +934,16 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="F5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1013,13 +964,13 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>175260</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>63500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1038,16 +989,16 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.88671875" customWidth="1"/>
+    <col min="3" max="3" width="83.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,104 +1007,86 @@
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1169,18 +1102,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1204,13 +1137,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>175260</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>63500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1232,14 +1165,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1250,21 +1183,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009796AFA9FB23BA42968688ABCE634A9C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5a84ed632dcf9c8f7b4d62f9d6a102e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f423150-2cdd-48d9-9270-a69c1f7e699a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19a6001113795a3bb37fd59fb77570ff" ns2:_="">
     <xsd:import namespace="2f423150-2cdd-48d9-9270-a69c1f7e699a"/>
@@ -1402,26 +1320,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{372C0842-4D4A-446D-8B45-AE815A5DAA02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A630574-B6C5-4FE9-AFE1-1071C5FE6BAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9dd6596e-c8f8-4455-8ee4-66d436aee8c7"/>
-    <ds:schemaRef ds:uri="e4f4844b-0fda-4019-a303-3beba8e8a91a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3FBD79-3017-4DAB-9132-325B92A4D8A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1439,6 +1353,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{372C0842-4D4A-446D-8B45-AE815A5DAA02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A630574-B6C5-4FE9-AFE1-1071C5FE6BAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9dd6596e-c8f8-4455-8ee4-66d436aee8c7"/>
+    <ds:schemaRef ds:uri="e4f4844b-0fda-4019-a303-3beba8e8a91a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
